--- a/biology/Médecine/Vaincre_les_maladies_lysosomales/Vaincre_les_maladies_lysosomales.xlsx
+++ b/biology/Médecine/Vaincre_les_maladies_lysosomales/Vaincre_les_maladies_lysosomales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’association Vaincre les Maladies Lysosomales est l'association des patients enfants et adultes et de leurs familles et amis confrontés aux maladies lysosomales, maladies génétiques rares. 
 Elle a été créée le 16 mai 1990 par des parents d’enfants malades qui ont souhaité se regrouper pour faire avancer ensemble le combat social et scientifique auxquels ils étaient confrontés. Des malades et parents qui sont toujours, au cœur du conseil d'administration, les moteurs de VML. Ils sont par ailleurs garants des valeurs de solidarité, d'engagement et de transparence.
@@ -514,7 +526,9 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Depuis 1990, date de sa création, VML s’inscrit dans une lutte pour la vie qui se conjugue en actions en faveur de la recherche scientifique et médicale et en actions d’aide et de soutien auprès des familles douloureusement touchées par la maladie. 
 VML a été créée par des parents d’enfants frappés par ces maladies lysosomales, avec pour objectif ultime : la guérison des personnes atteintes par ces maladies extrêmement graves et lourdes de conséquences. Dans une démarche proactive, VML s’est fixé trois missions :
@@ -548,7 +562,9 @@
           <t>Des compétences aux côtés des adhérents</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au quotidien, une équipe professionnelle offre aux adhérents de l'association des compétences fortes.
 Une psychologue et une assistante sociale composent le pôle social aux services des adhérents et familles. 
@@ -582,7 +598,9 @@
           <t>Les Parrains engagés aux côtés des malades</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Acteurs, sportifs… leur rencontre avec l'association VML leur a donné envie de s'engager aux côtés des malades et de leurs familles pour porter ensemble ce combat. Chacun à sa manière soutient et s'engage auprès de VML. 
 Amanda Scott, journaliste et présentatrice TV
@@ -616,11 +634,48 @@
           <t>Les maladies lysosomales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Fiches descriptives des maladies lysosomales[1].
-Lipidoses
-Austin
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fiches descriptives des maladies lysosomales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vaincre_les_maladies_lysosomales</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaincre_les_maladies_lysosomales</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les maladies lysosomales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lipidoses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Austin
 Fabry
 Farber
 Gaucher (type I, II et III)
@@ -631,34 +686,166 @@
 Niemann-Pick (A/B et C)
 Schindler
 Tay-Sachs
-Wolman
-Glycogénose
-Glycogénose Type 2 (Maladie de Pompe)
-Oligosaccharidoses et glycoprotéinoses
-Aspartylglucosaminurie
+Wolman</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vaincre_les_maladies_lysosomales</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaincre_les_maladies_lysosomales</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les maladies lysosomales</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Glycogénose</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Glycogénose Type 2 (Maladie de Pompe)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vaincre_les_maladies_lysosomales</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaincre_les_maladies_lysosomales</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les maladies lysosomales</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Oligosaccharidoses et glycoprotéinoses</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Aspartylglucosaminurie
 Fucosidose
 Mannosidoses alpha et bêta
 Mucolipidose type II (I Cell)
 Mucolipidose type III (pseudo Hurler)
 Mucolipidose type IV
 Sialidoses (en)
-Galactosialidoses
-Anomalies du transfert lysosomal
-Cystinose
+Galactosialidoses</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vaincre_les_maladies_lysosomales</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaincre_les_maladies_lysosomales</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les maladies lysosomales</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Anomalies du transfert lysosomal</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Cystinose
 Danon
-Salla (Surcharge en acide sialique libre)
-Mucopolysaccharidoses (MPS)
-MPS I (Hurler - Scheie)
+Salla (Surcharge en acide sialique libre)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vaincre_les_maladies_lysosomales</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaincre_les_maladies_lysosomales</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les maladies lysosomales</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mucopolysaccharidoses (MPS)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>MPS I (Hurler - Scheie)
 MPS II (Hunter)
 MPS III (Sanfilippo A/B/C et D)
 MPS IV (Morquio A et B)
 MPS VI (Maroteaux-Lamy)
 MPS VII (Sly)
-MPS IX
-Pycnodysostose
-Céroïdes lipofuscinoses
-Syndrome de Papillon - Lefèvre
-Syndrome de Chediak - Higashi</t>
+MPS IX</t>
         </is>
       </c>
     </row>
